--- a/Data/Processing/2024-02-02/DALBHARAT.xlsx
+++ b/Data/Processing/2024-02-02/DALBHARAT.xlsx
@@ -4063,7 +4063,7 @@
         <v>45065</v>
       </c>
       <c r="B71">
-        <v>2054.18</v>
+        <v>2054.19</v>
       </c>
       <c r="C71">
         <v>2072.86</v>
@@ -4072,7 +4072,7 @@
         <v>2022.07</v>
       </c>
       <c r="E71">
-        <v>2049.25</v>
+        <v>2049.26</v>
       </c>
       <c r="F71">
         <v>2054.19</v>
@@ -4093,7 +4093,7 @@
         <v>-1.59</v>
       </c>
       <c r="L71">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="M71">
         <v>1.35</v>
@@ -4102,7 +4102,7 @@
         <v>2.47</v>
       </c>
       <c r="O71">
-        <v>1954.909545454546</v>
+        <v>1954.909772727273</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>2069.22</v>
       </c>
       <c r="F72">
-        <v>2049.25</v>
+        <v>2049.26</v>
       </c>
       <c r="G72">
         <v>142115</v>
@@ -4143,7 +4143,7 @@
         <v>-0.77</v>
       </c>
       <c r="L72">
-        <v>10.81</v>
+        <v>10.8</v>
       </c>
       <c r="M72">
         <v>-0.11</v>
@@ -4152,7 +4152,7 @@
         <v>1.32</v>
       </c>
       <c r="O72">
-        <v>1962.32</v>
+        <v>1962.320227272727</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>1.62</v>
       </c>
       <c r="O73">
-        <v>1968.852272727273</v>
+        <v>1968.8525</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>1.35</v>
       </c>
       <c r="O74">
-        <v>1974.822045454545</v>
+        <v>1974.822272727273</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1.81</v>
       </c>
       <c r="O75">
-        <v>1980.093636363637</v>
+        <v>1980.093863636364</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>2.04</v>
       </c>
       <c r="O76">
-        <v>1986.1925</v>
+        <v>1986.192727272727</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>1.97</v>
       </c>
       <c r="O77">
-        <v>1992.311818181818</v>
+        <v>1992.312045454546</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>2.84</v>
       </c>
       <c r="O78">
-        <v>1998.849772727273</v>
+        <v>1998.85</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2.05</v>
       </c>
       <c r="O79">
-        <v>2005.794090909091</v>
+        <v>2005.794318181818</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -4552,7 +4552,7 @@
         <v>2</v>
       </c>
       <c r="O80">
-        <v>2012.661363636363</v>
+        <v>2012.661590909091</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>1.22</v>
       </c>
       <c r="O81">
-        <v>2018.772727272727</v>
+        <v>2018.772954545454</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>1.16</v>
       </c>
       <c r="O82">
-        <v>2025.455454545454</v>
+        <v>2025.455681818182</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>1.73</v>
       </c>
       <c r="O83">
-        <v>2030.688636363637</v>
+        <v>2030.688863636364</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>1.62</v>
       </c>
       <c r="O84">
-        <v>2035.192954545455</v>
+        <v>2035.193181818182</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>3.45</v>
       </c>
       <c r="O85">
-        <v>2038.712727272727</v>
+        <v>2038.712954545455</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>3.4</v>
       </c>
       <c r="O86">
-        <v>2041.346363636364</v>
+        <v>2041.346590909091</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>1.8</v>
       </c>
       <c r="O87">
-        <v>2043.673181818182</v>
+        <v>2043.673409090909</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -4913,7 +4913,7 @@
         <v>45090</v>
       </c>
       <c r="B88">
-        <v>2105.48</v>
+        <v>2105.47</v>
       </c>
       <c r="C88">
         <v>2160.05</v>
@@ -4943,7 +4943,7 @@
         <v>-0.24</v>
       </c>
       <c r="L88">
-        <v>11.91</v>
+        <v>11.9</v>
       </c>
       <c r="M88">
         <v>-0.5299999999999998</v>
@@ -4952,7 +4952,7 @@
         <v>2.83</v>
       </c>
       <c r="O88">
-        <v>2047.603636363636</v>
+        <v>2047.603863636364</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -5002,7 +5002,7 @@
         <v>2.77</v>
       </c>
       <c r="O89">
-        <v>2052.026363636363</v>
+        <v>2052.026590909091</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>3.15</v>
       </c>
       <c r="O90">
-        <v>2057.898863636364</v>
+        <v>2057.899090909091</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>2</v>
       </c>
       <c r="O91">
-        <v>2063.650227272727</v>
+        <v>2063.650454545455</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>2.47</v>
       </c>
       <c r="O92">
-        <v>2068.34</v>
+        <v>2068.340227272727</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>1.23</v>
       </c>
       <c r="O93">
-        <v>2072.9925</v>
+        <v>2072.992727272727</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>1.31</v>
       </c>
       <c r="O94">
-        <v>2077.648409090909</v>
+        <v>2077.648636363636</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>3.77</v>
       </c>
       <c r="O95">
-        <v>2082.434318181818</v>
+        <v>2082.434545454546</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>1.62</v>
       </c>
       <c r="O96">
-        <v>2088.099318181818</v>
+        <v>2088.099545454545</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>2.12</v>
       </c>
       <c r="O97">
-        <v>2094.276363636364</v>
+        <v>2094.276590909091</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>3.05</v>
       </c>
       <c r="O98">
-        <v>2099.937045454546</v>
+        <v>2099.937272727273</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>2105.3</v>
+        <v>2105.300227272728</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>3.15</v>
       </c>
       <c r="O100">
-        <v>2109.931818181818</v>
+        <v>2109.932045454545</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1.86</v>
       </c>
       <c r="O101">
-        <v>2114.665909090909</v>
+        <v>2114.666136363636</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>1.76</v>
       </c>
       <c r="O102">
-        <v>2118.970454545455</v>
+        <v>2118.970681818182</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>1.51</v>
       </c>
       <c r="O103">
-        <v>2123.006136363636</v>
+        <v>2123.006363636363</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>1.56</v>
       </c>
       <c r="O104">
-        <v>2126.930909090909</v>
+        <v>2126.931136363637</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>2.46</v>
       </c>
       <c r="O105">
-        <v>2130.07</v>
+        <v>2130.070227272727</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>2.66</v>
       </c>
       <c r="O106">
-        <v>2130.523409090909</v>
+        <v>2130.523636363636</v>
       </c>
       <c r="P106">
         <v>1</v>
@@ -5902,7 +5902,7 @@
         <v>2.84</v>
       </c>
       <c r="O107">
-        <v>2130.453409090909</v>
+        <v>2130.453636363636</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -5952,7 +5952,7 @@
         <v>2.87</v>
       </c>
       <c r="O108">
-        <v>2130.060681818182</v>
+        <v>2130.060909090909</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -6002,7 +6002,7 @@
         <v>2.17</v>
       </c>
       <c r="O109">
-        <v>2129.590681818182</v>
+        <v>2129.590909090909</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>1.58</v>
       </c>
       <c r="O110">
-        <v>2129.120681818182</v>
+        <v>2129.120909090909</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -6102,7 +6102,7 @@
         <v>1.67</v>
       </c>
       <c r="O111">
-        <v>2128.879318181818</v>
+        <v>2128.879545454545</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>1.98</v>
       </c>
       <c r="O112">
-        <v>2128.045</v>
+        <v>2128.045227272727</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>1.07</v>
       </c>
       <c r="O113">
-        <v>2127.267272727272</v>
+        <v>2127.2675</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1.49</v>
       </c>
       <c r="O114">
-        <v>2126.428636363637</v>
+        <v>2126.428863636364</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -6352,7 +6352,7 @@
         <v>2.05</v>
       </c>
       <c r="O116">
-        <v>2119.518636363636</v>
+        <v>2119.518636363637</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -6602,7 +6602,7 @@
         <v>1.25</v>
       </c>
       <c r="O121">
-        <v>2106.223636363637</v>
+        <v>2106.223636363636</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>2.07</v>
       </c>
       <c r="O124">
-        <v>2096.363863636364</v>
+        <v>2096.363863636363</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -7152,7 +7152,7 @@
         <v>1.7</v>
       </c>
       <c r="O132">
-        <v>2068.733863636364</v>
+        <v>2068.733863636363</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -7202,7 +7202,7 @@
         <v>0.99</v>
       </c>
       <c r="O133">
-        <v>2062.211363636364</v>
+        <v>2062.211363636363</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>2.02</v>
       </c>
       <c r="O134">
-        <v>2054.237727272727</v>
+        <v>2054.237727272728</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -7652,7 +7652,7 @@
         <v>2.87</v>
       </c>
       <c r="O142">
-        <v>2016.362045454545</v>
+        <v>2016.362045454546</v>
       </c>
       <c r="P142">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>2.94</v>
       </c>
       <c r="O152">
-        <v>2044.757954545455</v>
+        <v>2044.757954545454</v>
       </c>
       <c r="P152">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>1.85</v>
       </c>
       <c r="O154">
-        <v>2060.119772727272</v>
+        <v>2060.119772727273</v>
       </c>
       <c r="P154">
         <v>0</v>
@@ -8352,7 +8352,7 @@
         <v>2.93</v>
       </c>
       <c r="O156">
-        <v>2073.488863636363</v>
+        <v>2073.488863636364</v>
       </c>
       <c r="P156">
         <v>0</v>
@@ -8752,7 +8752,7 @@
         <v>2.23</v>
       </c>
       <c r="O164">
-        <v>2142.922954545455</v>
+        <v>2142.922954545454</v>
       </c>
       <c r="P164">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>3.82</v>
       </c>
       <c r="O174">
-        <v>2206.958863636364</v>
+        <v>2206.958863636363</v>
       </c>
       <c r="P174">
         <v>0</v>
@@ -9302,7 +9302,7 @@
         <v>2.3</v>
       </c>
       <c r="O175">
-        <v>2214.204772727273</v>
+        <v>2214.204772727272</v>
       </c>
       <c r="P175">
         <v>0</v>
@@ -9452,7 +9452,7 @@
         <v>5.73</v>
       </c>
       <c r="O178">
-        <v>2231.106818181819</v>
+        <v>2231.106818181818</v>
       </c>
       <c r="P178">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>2.56</v>
       </c>
       <c r="O184">
-        <v>2241.552272727272</v>
+        <v>2241.552272727273</v>
       </c>
       <c r="P184">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>1.59</v>
       </c>
       <c r="O186">
-        <v>2242.017954545455</v>
+        <v>2242.017954545454</v>
       </c>
       <c r="P186">
         <v>0</v>
@@ -10152,7 +10152,7 @@
         <v>1.37</v>
       </c>
       <c r="O192">
-        <v>2226.110227272727</v>
+        <v>2226.110227272728</v>
       </c>
       <c r="P192">
         <v>0</v>
@@ -10652,7 +10652,7 @@
         <v>2.89</v>
       </c>
       <c r="O202">
-        <v>2193.322727272728</v>
+        <v>2193.322727272727</v>
       </c>
       <c r="P202">
         <v>1</v>
@@ -11102,7 +11102,7 @@
         <v>1.88</v>
       </c>
       <c r="O211">
-        <v>2192.826363636363</v>
+        <v>2192.826363636364</v>
       </c>
       <c r="P211">
         <v>0</v>
@@ -11552,7 +11552,7 @@
         <v>2.8</v>
       </c>
       <c r="O220">
-        <v>2199.677272727272</v>
+        <v>2199.677272727273</v>
       </c>
       <c r="P220">
         <v>0</v>
@@ -12173,7 +12173,7 @@
         <v>4.46</v>
       </c>
       <c r="O229">
-        <v>2252.268181818182</v>
+        <v>2252.268181818181</v>
       </c>
       <c r="P229">
         <v>0</v>
@@ -12815,7 +12815,7 @@
         <v>3.04</v>
       </c>
       <c r="O235">
-        <v>2279.239772727273</v>
+        <v>2279.239772727272</v>
       </c>
       <c r="P235">
         <v>1</v>
